--- a/data/analysis/website_sizes/website_size_by_attribute-mean.xlsx
+++ b/data/analysis/website_sizes/website_size_by_attribute-mean.xlsx
@@ -666,40 +666,40 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>5869.7</v>
+        <v>5840.4</v>
       </c>
       <c r="D2">
-        <v>902.4</v>
+        <v>898</v>
       </c>
       <c r="E2">
-        <v>82126</v>
+        <v>84636</v>
       </c>
       <c r="F2">
-        <v>39.3</v>
+        <v>54.4</v>
       </c>
       <c r="G2">
-        <v>241085.9</v>
+        <v>325276</v>
       </c>
       <c r="H2">
-        <v>37222.7</v>
+        <v>50098.7</v>
       </c>
       <c r="I2">
-        <v>-0.025</v>
+        <v>-0.046</v>
       </c>
       <c r="J2">
-        <v>-0.057</v>
+        <v>-0.075</v>
       </c>
       <c r="K2">
-        <v>-0.38</v>
+        <v>-0.377</v>
       </c>
       <c r="L2">
-        <v>1.491</v>
+        <v>2.186</v>
       </c>
       <c r="M2">
-        <v>0.824</v>
+        <v>1.439</v>
       </c>
       <c r="N2">
-        <v>1.007</v>
+        <v>1.663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -710,40 +710,40 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>4719.8</v>
+        <v>4731.5</v>
       </c>
       <c r="D3">
-        <v>709.4</v>
+        <v>709.7</v>
       </c>
       <c r="E3">
-        <v>94137.39999999999</v>
+        <v>95623.89999999999</v>
       </c>
       <c r="F3">
-        <v>25.4</v>
+        <v>27.7</v>
       </c>
       <c r="G3">
-        <v>219777.8</v>
+        <v>239706.3</v>
       </c>
       <c r="H3">
-        <v>31797.2</v>
+        <v>34564.1</v>
       </c>
       <c r="I3">
-        <v>-0.463</v>
+        <v>-0.471</v>
       </c>
       <c r="J3">
-        <v>-0.491</v>
+        <v>-0.501</v>
       </c>
       <c r="K3">
-        <v>-0.31</v>
+        <v>-0.312</v>
       </c>
       <c r="L3">
-        <v>0.045</v>
+        <v>-0.04</v>
       </c>
       <c r="M3">
-        <v>0.5570000000000001</v>
+        <v>0.468</v>
       </c>
       <c r="N3">
-        <v>0.506</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -754,40 +754,40 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>5638</v>
+        <v>5761.3</v>
       </c>
       <c r="D4">
-        <v>880.8</v>
+        <v>900.5</v>
       </c>
       <c r="E4">
-        <v>78944.7</v>
+        <v>80642</v>
       </c>
       <c r="F4">
-        <v>25.4</v>
+        <v>27.7</v>
       </c>
       <c r="G4">
-        <v>180412.1</v>
+        <v>202859.8</v>
       </c>
       <c r="H4">
-        <v>27756.8</v>
+        <v>31261.8</v>
       </c>
       <c r="I4">
-        <v>-0.113</v>
+        <v>-0.076</v>
       </c>
       <c r="J4">
-        <v>-0.106</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="K4">
-        <v>-0.399</v>
+        <v>-0.4</v>
       </c>
       <c r="L4">
-        <v>0.045</v>
+        <v>-0.04</v>
       </c>
       <c r="M4">
-        <v>0.064</v>
+        <v>0.049</v>
       </c>
       <c r="N4">
-        <v>0.134</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -798,40 +798,40 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>4947.3</v>
+        <v>5296.3</v>
       </c>
       <c r="D5">
-        <v>752.1</v>
+        <v>801.7</v>
       </c>
       <c r="E5">
-        <v>85362.39999999999</v>
+        <v>95982.3</v>
       </c>
       <c r="F5">
-        <v>25.5</v>
+        <v>28.1</v>
       </c>
       <c r="G5">
-        <v>119516.1</v>
+        <v>144494.7</v>
       </c>
       <c r="H5">
-        <v>18176.8</v>
+        <v>21841.4</v>
       </c>
       <c r="I5">
-        <v>-0.376</v>
+        <v>-0.254</v>
       </c>
       <c r="J5">
-        <v>-0.395</v>
+        <v>-0.293</v>
       </c>
       <c r="K5">
-        <v>-0.361</v>
+        <v>-0.31</v>
       </c>
       <c r="L5">
-        <v>0.055</v>
+        <v>-0.006</v>
       </c>
       <c r="M5">
-        <v>-0.7</v>
+        <v>-0.613</v>
       </c>
       <c r="N5">
-        <v>-0.75</v>
+        <v>-0.653</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -842,40 +842,40 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>10798.2</v>
+        <v>10804.3</v>
       </c>
       <c r="D6">
-        <v>1702.3</v>
+        <v>1700.1</v>
       </c>
       <c r="E6">
-        <v>173637.1</v>
+        <v>174739.3</v>
       </c>
       <c r="F6">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="G6">
-        <v>115813.7</v>
+        <v>139651.8</v>
       </c>
       <c r="H6">
-        <v>17915.9</v>
+        <v>21570.9</v>
       </c>
       <c r="I6">
-        <v>1.853</v>
+        <v>1.856</v>
       </c>
       <c r="J6">
-        <v>1.744</v>
+        <v>1.742</v>
       </c>
       <c r="K6">
-        <v>0.156</v>
+        <v>0.151</v>
       </c>
       <c r="L6">
-        <v>-1.204</v>
+        <v>-1.04</v>
       </c>
       <c r="M6">
-        <v>-0.746</v>
+        <v>-0.668</v>
       </c>
       <c r="N6">
-        <v>-0.774</v>
+        <v>-0.675</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -886,40 +886,40 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>5187.1</v>
+        <v>5162.7</v>
       </c>
       <c r="D7">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E7">
-        <v>76497.7</v>
+        <v>76421.7</v>
       </c>
       <c r="F7">
-        <v>15.1</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>82270.39999999999</v>
+        <v>89327.3</v>
       </c>
       <c r="H7">
-        <v>12663.9</v>
+        <v>13859.2</v>
       </c>
       <c r="I7">
-        <v>-0.285</v>
+        <v>-0.305</v>
       </c>
       <c r="J7">
-        <v>-0.215</v>
+        <v>-0.233</v>
       </c>
       <c r="K7">
-        <v>-0.413</v>
+        <v>-0.425</v>
       </c>
       <c r="L7">
-        <v>-1.027</v>
+        <v>-0.9320000000000001</v>
       </c>
       <c r="M7">
-        <v>-1.167</v>
+        <v>-1.24</v>
       </c>
       <c r="N7">
-        <v>-1.259</v>
+        <v>-1.307</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -930,40 +930,40 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>12367.5</v>
+        <v>12324.3</v>
       </c>
       <c r="D8">
-        <v>2058.4</v>
+        <v>2051.8</v>
       </c>
       <c r="E8">
-        <v>165407.3</v>
+        <v>165805.7</v>
       </c>
       <c r="F8">
-        <v>13.6</v>
+        <v>14.5</v>
       </c>
       <c r="G8">
-        <v>102966.3</v>
+        <v>111216.9</v>
       </c>
       <c r="H8">
-        <v>17416.2</v>
+        <v>18836.1</v>
       </c>
       <c r="I8">
-        <v>2.451</v>
+        <v>2.438</v>
       </c>
       <c r="J8">
-        <v>2.545</v>
+        <v>2.538</v>
       </c>
       <c r="K8">
-        <v>0.108</v>
+        <v>0.099</v>
       </c>
       <c r="L8">
-        <v>-1.183</v>
+        <v>-1.14</v>
       </c>
       <c r="M8">
-        <v>-0.908</v>
+        <v>-0.991</v>
       </c>
       <c r="N8">
-        <v>-0.82</v>
+        <v>-0.899</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -974,40 +974,40 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>5982.7</v>
+        <v>5982.2</v>
       </c>
       <c r="D9">
-        <v>948.2</v>
+        <v>946.2</v>
       </c>
       <c r="E9">
-        <v>704886.9</v>
+        <v>707115.4</v>
       </c>
       <c r="F9">
-        <v>14.3</v>
+        <v>15.4</v>
       </c>
       <c r="G9">
-        <v>95745.3</v>
+        <v>104739.9</v>
       </c>
       <c r="H9">
-        <v>15112.7</v>
+        <v>16429</v>
       </c>
       <c r="I9">
-        <v>0.018</v>
+        <v>0.008</v>
       </c>
       <c r="J9">
-        <v>0.046</v>
+        <v>0.035</v>
       </c>
       <c r="K9">
-        <v>3.268</v>
+        <v>3.269</v>
       </c>
       <c r="L9">
-        <v>-1.11</v>
+        <v>-1.065</v>
       </c>
       <c r="M9">
-        <v>-0.998</v>
+        <v>-1.065</v>
       </c>
       <c r="N9">
-        <v>-1.033</v>
+        <v>-1.096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1018,40 +1018,40 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>4568</v>
+        <v>4534.1</v>
       </c>
       <c r="D10">
-        <v>698.3</v>
+        <v>693.3</v>
       </c>
       <c r="E10">
-        <v>93671.7</v>
+        <v>96272.8</v>
       </c>
       <c r="F10">
-        <v>26.7</v>
+        <v>28.8</v>
       </c>
       <c r="G10">
-        <v>204770.2</v>
+        <v>221164.6</v>
       </c>
       <c r="H10">
-        <v>30029.2</v>
+        <v>32519</v>
       </c>
       <c r="I10">
-        <v>-0.521</v>
+        <v>-0.546</v>
       </c>
       <c r="J10">
-        <v>-0.516</v>
+        <v>-0.538</v>
       </c>
       <c r="K10">
-        <v>-0.313</v>
+        <v>-0.308</v>
       </c>
       <c r="L10">
-        <v>0.18</v>
+        <v>0.052</v>
       </c>
       <c r="M10">
-        <v>0.369</v>
+        <v>0.257</v>
       </c>
       <c r="N10">
-        <v>0.343</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1062,40 +1062,40 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>4014.7</v>
+        <v>3995.9</v>
       </c>
       <c r="D11">
-        <v>613.8</v>
+        <v>610.5</v>
       </c>
       <c r="E11">
-        <v>103207.8</v>
+        <v>104124.6</v>
       </c>
       <c r="F11">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="G11">
-        <v>223552.8</v>
+        <v>226302.8</v>
       </c>
       <c r="H11">
-        <v>33404.9</v>
+        <v>33782.1</v>
       </c>
       <c r="I11">
-        <v>-0.732</v>
+        <v>-0.752</v>
       </c>
       <c r="J11">
-        <v>-0.707</v>
+        <v>-0.726</v>
       </c>
       <c r="K11">
-        <v>-0.257</v>
+        <v>-0.262</v>
       </c>
       <c r="L11">
-        <v>0.305</v>
+        <v>0.127</v>
       </c>
       <c r="M11">
-        <v>0.604</v>
+        <v>0.315</v>
       </c>
       <c r="N11">
-        <v>0.655</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1106,40 +1106,40 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3603.4</v>
+        <v>3578.3</v>
       </c>
       <c r="D12">
-        <v>551.4</v>
+        <v>547.5</v>
       </c>
       <c r="E12">
-        <v>103288.2</v>
+        <v>103846.3</v>
       </c>
       <c r="F12">
-        <v>23.4</v>
+        <v>26.5</v>
       </c>
       <c r="G12">
-        <v>166542.7</v>
+        <v>197753.8</v>
       </c>
       <c r="H12">
-        <v>26360.6</v>
+        <v>31228.5</v>
       </c>
       <c r="I12">
-        <v>-0.888</v>
+        <v>-0.912</v>
       </c>
       <c r="J12">
-        <v>-0.847</v>
+        <v>-0.868</v>
       </c>
       <c r="K12">
-        <v>-0.256</v>
+        <v>-0.264</v>
       </c>
       <c r="L12">
-        <v>-0.163</v>
+        <v>-0.14</v>
       </c>
       <c r="M12">
-        <v>-0.11</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="N12">
-        <v>0.005</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1150,40 +1150,40 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>5299.5</v>
+        <v>5281.2</v>
       </c>
       <c r="D13">
-        <v>767.6</v>
+        <v>767.1</v>
       </c>
       <c r="E13">
-        <v>71867</v>
+        <v>72050.60000000001</v>
       </c>
       <c r="F13">
-        <v>44.7</v>
+        <v>47.6</v>
       </c>
       <c r="G13">
-        <v>373721.1</v>
+        <v>396131.3</v>
       </c>
       <c r="H13">
-        <v>51827</v>
+        <v>54896.2</v>
       </c>
       <c r="I13">
-        <v>-0.242</v>
+        <v>-0.26</v>
       </c>
       <c r="J13">
-        <v>-0.36</v>
+        <v>-0.371</v>
       </c>
       <c r="K13">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="L13">
-        <v>2.053</v>
+        <v>1.619</v>
       </c>
       <c r="M13">
-        <v>2.487</v>
+        <v>2.243</v>
       </c>
       <c r="N13">
-        <v>2.354</v>
+        <v>2.056</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1194,40 +1194,40 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>4164.2</v>
+        <v>4188.6</v>
       </c>
       <c r="D14">
-        <v>643.8</v>
+        <v>647.9</v>
       </c>
       <c r="E14">
-        <v>78449.10000000001</v>
+        <v>78893.5</v>
       </c>
       <c r="F14">
-        <v>29.9</v>
+        <v>33.2</v>
       </c>
       <c r="G14">
-        <v>153295.8</v>
+        <v>182152.3</v>
       </c>
       <c r="H14">
-        <v>22322.2</v>
+        <v>26583.1</v>
       </c>
       <c r="I14">
-        <v>-0.675</v>
+        <v>-0.679</v>
       </c>
       <c r="J14">
-        <v>-0.639</v>
+        <v>-0.641</v>
       </c>
       <c r="K14">
-        <v>-0.402</v>
+        <v>-0.41</v>
       </c>
       <c r="L14">
-        <v>0.513</v>
+        <v>0.419</v>
       </c>
       <c r="M14">
-        <v>-0.276</v>
+        <v>-0.186</v>
       </c>
       <c r="N14">
-        <v>-0.368</v>
+        <v>-0.264</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>4806.5</v>
+        <v>4829.8</v>
       </c>
       <c r="D15">
-        <v>725.5</v>
+        <v>727.7</v>
       </c>
       <c r="E15">
-        <v>92698.39999999999</v>
+        <v>94270.10000000001</v>
       </c>
       <c r="F15">
-        <v>25.5</v>
+        <v>27.8</v>
       </c>
       <c r="G15">
-        <v>215747.5</v>
+        <v>236190.3</v>
       </c>
       <c r="H15">
-        <v>31374.4</v>
+        <v>34252.5</v>
       </c>
       <c r="I15">
-        <v>-0.124</v>
+        <v>-0.082</v>
       </c>
       <c r="J15">
-        <v>-0.165</v>
+        <v>-0.145</v>
       </c>
       <c r="K15">
-        <v>0.255</v>
+        <v>0.274</v>
       </c>
       <c r="L15">
-        <v>-0.635</v>
+        <v>-0.648</v>
       </c>
       <c r="M15">
-        <v>-0.192</v>
+        <v>-0.202</v>
       </c>
       <c r="N15">
-        <v>-0.176</v>
+        <v>-0.194</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1282,40 +1282,40 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>5213.7</v>
+        <v>5181.9</v>
       </c>
       <c r="D16">
-        <v>812.5</v>
+        <v>807.5</v>
       </c>
       <c r="E16">
-        <v>110360.5</v>
+        <v>112285</v>
       </c>
       <c r="F16">
-        <v>25.2</v>
+        <v>27.2</v>
       </c>
       <c r="G16">
-        <v>194288</v>
+        <v>208091.8</v>
       </c>
       <c r="H16">
-        <v>28916.9</v>
+        <v>31024.8</v>
       </c>
       <c r="I16">
-        <v>0.662</v>
+        <v>0.631</v>
       </c>
       <c r="J16">
-        <v>1.047</v>
+        <v>1.028</v>
       </c>
       <c r="K16">
-        <v>1.291</v>
+        <v>1.282</v>
       </c>
       <c r="L16">
-        <v>-0.668</v>
+        <v>-0.711</v>
       </c>
       <c r="M16">
-        <v>-0.414</v>
+        <v>-0.494</v>
       </c>
       <c r="N16">
-        <v>-0.369</v>
+        <v>-0.452</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1326,40 +1326,40 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>5299.5</v>
+        <v>5281.2</v>
       </c>
       <c r="D17">
-        <v>767.6</v>
+        <v>767.1</v>
       </c>
       <c r="E17">
-        <v>71867</v>
+        <v>72050.60000000001</v>
       </c>
       <c r="F17">
-        <v>44.7</v>
+        <v>47.6</v>
       </c>
       <c r="G17">
-        <v>373721.1</v>
+        <v>396131.3</v>
       </c>
       <c r="H17">
-        <v>51827</v>
+        <v>54896.2</v>
       </c>
       <c r="I17">
-        <v>0.827</v>
+        <v>0.832</v>
       </c>
       <c r="J17">
-        <v>0.421</v>
+        <v>0.434</v>
       </c>
       <c r="K17">
-        <v>-0.966</v>
+        <v>-0.969</v>
       </c>
       <c r="L17">
-        <v>1.458</v>
+        <v>1.438</v>
       </c>
       <c r="M17">
-        <v>1.445</v>
+        <v>1.46</v>
       </c>
       <c r="N17">
-        <v>1.431</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1370,40 +1370,40 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>4164.2</v>
+        <v>4188.6</v>
       </c>
       <c r="D18">
-        <v>643.8</v>
+        <v>647.9</v>
       </c>
       <c r="E18">
-        <v>78449.10000000001</v>
+        <v>78893.5</v>
       </c>
       <c r="F18">
-        <v>29.9</v>
+        <v>33.2</v>
       </c>
       <c r="G18">
-        <v>153295.8</v>
+        <v>182152.3</v>
       </c>
       <c r="H18">
-        <v>22322.2</v>
+        <v>26583.1</v>
       </c>
       <c r="I18">
-        <v>-1.365</v>
+        <v>-1.38</v>
       </c>
       <c r="J18">
-        <v>-1.303</v>
+        <v>-1.317</v>
       </c>
       <c r="K18">
-        <v>-0.58</v>
+        <v>-0.586</v>
       </c>
       <c r="L18">
-        <v>-0.155</v>
+        <v>-0.079</v>
       </c>
       <c r="M18">
-        <v>-0.839</v>
+        <v>-0.764</v>
       </c>
       <c r="N18">
-        <v>-0.887</v>
+        <v>-0.806</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1414,40 +1414,40 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>6605.6</v>
+        <v>6731.2</v>
       </c>
       <c r="D19">
-        <v>1018.2</v>
+        <v>1038.6</v>
       </c>
       <c r="E19">
-        <v>93119.39999999999</v>
+        <v>95630.60000000001</v>
       </c>
       <c r="F19">
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="G19">
-        <v>228705.4</v>
+        <v>246844.7</v>
       </c>
       <c r="H19">
-        <v>34539.6</v>
+        <v>37349.8</v>
       </c>
       <c r="I19">
-        <v>0.796</v>
+        <v>0.865</v>
       </c>
       <c r="J19">
-        <v>0.718</v>
+        <v>0.79</v>
       </c>
       <c r="K19">
-        <v>-0.924</v>
+        <v>-0.91</v>
       </c>
       <c r="L19">
-        <v>1.001</v>
+        <v>1.118</v>
       </c>
       <c r="M19">
-        <v>-0.159</v>
+        <v>-0.076</v>
       </c>
       <c r="N19">
-        <v>-0.13</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1458,40 +1458,40 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>7150.4</v>
+        <v>7156.8</v>
       </c>
       <c r="D20">
-        <v>1137.2</v>
+        <v>1137.6</v>
       </c>
       <c r="E20">
-        <v>111814.1</v>
+        <v>113094</v>
       </c>
       <c r="F20">
-        <v>26.2</v>
+        <v>28.7</v>
       </c>
       <c r="G20">
-        <v>193174.8</v>
+        <v>210024.8</v>
       </c>
       <c r="H20">
-        <v>30028.9</v>
+        <v>32600.5</v>
       </c>
       <c r="I20">
-        <v>1.283</v>
+        <v>1.231</v>
       </c>
       <c r="J20">
-        <v>1.349</v>
+        <v>1.298</v>
       </c>
       <c r="K20">
-        <v>0.037</v>
+        <v>0.018</v>
       </c>
       <c r="L20">
-        <v>-0.595</v>
+        <v>-0.5</v>
       </c>
       <c r="M20">
-        <v>-0.544</v>
+        <v>-0.574</v>
       </c>
       <c r="N20">
-        <v>-0.459</v>
+        <v>-0.463</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1502,40 +1502,40 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>5199.5</v>
+        <v>5204.6</v>
       </c>
       <c r="D21">
-        <v>804.7</v>
+        <v>804.1</v>
       </c>
       <c r="E21">
-        <v>114633.6</v>
+        <v>116846.7</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>26.9</v>
       </c>
       <c r="G21">
-        <v>191449.2</v>
+        <v>208316.8</v>
       </c>
       <c r="H21">
-        <v>27861.1</v>
+        <v>30251</v>
       </c>
       <c r="I21">
-        <v>-0.46</v>
+        <v>-0.449</v>
       </c>
       <c r="J21">
-        <v>-0.415</v>
+        <v>-0.413</v>
       </c>
       <c r="K21">
-        <v>0.182</v>
+        <v>0.218</v>
       </c>
       <c r="L21">
-        <v>-0.857</v>
+        <v>-0.928</v>
       </c>
       <c r="M21">
-        <v>-0.5629999999999999</v>
+        <v>-0.598</v>
       </c>
       <c r="N21">
-        <v>-0.617</v>
+        <v>-0.677</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1546,40 +1546,40 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>4457.9</v>
+        <v>4423.9</v>
       </c>
       <c r="D22">
-        <v>679.4</v>
+        <v>674.5</v>
       </c>
       <c r="E22">
-        <v>94660.3</v>
+        <v>96441.60000000001</v>
       </c>
       <c r="F22">
-        <v>25.6</v>
+        <v>27.7</v>
       </c>
       <c r="G22">
-        <v>197258.5</v>
+        <v>215512.2</v>
       </c>
       <c r="H22">
-        <v>28756.9</v>
+        <v>31498.9</v>
       </c>
       <c r="I22">
-        <v>-1.123</v>
+        <v>-1.121</v>
       </c>
       <c r="J22">
-        <v>-1.08</v>
+        <v>-1.077</v>
       </c>
       <c r="K22">
-        <v>-0.844</v>
+        <v>-0.867</v>
       </c>
       <c r="L22">
-        <v>-0.726</v>
+        <v>-0.737</v>
       </c>
       <c r="M22">
         <v>-0.5</v>
       </c>
       <c r="N22">
-        <v>-0.551</v>
+        <v>-0.5629999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1590,40 +1590,40 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>5159.3</v>
+        <v>5113.9</v>
       </c>
       <c r="D23">
-        <v>775</v>
+        <v>767.8</v>
       </c>
       <c r="E23">
-        <v>141229.8</v>
+        <v>141736.4</v>
       </c>
       <c r="F23">
-        <v>34.3</v>
+        <v>35.2</v>
       </c>
       <c r="G23">
-        <v>406023.7</v>
+        <v>381611.8</v>
       </c>
       <c r="H23">
-        <v>60447</v>
+        <v>56783.1</v>
       </c>
       <c r="I23">
-        <v>-0.496</v>
+        <v>-0.527</v>
       </c>
       <c r="J23">
-        <v>-0.572</v>
+        <v>-0.599</v>
       </c>
       <c r="K23">
-        <v>1.549</v>
+        <v>1.541</v>
       </c>
       <c r="L23">
-        <v>1.176</v>
+        <v>1.047</v>
       </c>
       <c r="M23">
-        <v>1.764</v>
+        <v>1.748</v>
       </c>
       <c r="N23">
-        <v>1.757</v>
+        <v>1.735</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1634,40 +1634,40 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>5712.7</v>
+        <v>5722.5</v>
       </c>
       <c r="D24">
-        <v>890.6</v>
+        <v>892.1</v>
       </c>
       <c r="E24">
-        <v>103518.5</v>
+        <v>105537.7</v>
       </c>
       <c r="F24">
-        <v>28.8</v>
+        <v>31.1</v>
       </c>
       <c r="G24">
-        <v>227163.3</v>
+        <v>259321.9</v>
       </c>
       <c r="H24">
-        <v>33839.8</v>
+        <v>38681.5</v>
       </c>
       <c r="I24">
-        <v>1.089</v>
+        <v>1.104</v>
       </c>
       <c r="J24">
-        <v>1.159</v>
+        <v>1.175</v>
       </c>
       <c r="K24">
-        <v>-0.059</v>
+        <v>-0.043</v>
       </c>
       <c r="L24">
-        <v>-0.001</v>
+        <v>0.062</v>
       </c>
       <c r="M24">
-        <v>0.263</v>
+        <v>0.506</v>
       </c>
       <c r="N24">
-        <v>0.278</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1678,40 +1678,40 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5394.7</v>
+        <v>5369.9</v>
       </c>
       <c r="D25">
-        <v>810.1</v>
+        <v>807.4</v>
       </c>
       <c r="E25">
-        <v>130831</v>
+        <v>133950.2</v>
       </c>
       <c r="F25">
-        <v>33.9</v>
+        <v>35.9</v>
       </c>
       <c r="G25">
-        <v>247234.6</v>
+        <v>264435.2</v>
       </c>
       <c r="H25">
-        <v>35295.1</v>
+        <v>37775.8</v>
       </c>
       <c r="I25">
-        <v>0.716</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="J25">
-        <v>0.57</v>
+        <v>0.552</v>
       </c>
       <c r="K25">
-        <v>0.964</v>
+        <v>1.01</v>
       </c>
       <c r="L25">
-        <v>0.767</v>
+        <v>0.783</v>
       </c>
       <c r="M25">
-        <v>0.522</v>
+        <v>0.573</v>
       </c>
       <c r="N25">
-        <v>0.406</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1722,40 +1722,40 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>4880.8</v>
+        <v>4907.7</v>
       </c>
       <c r="D26">
-        <v>749.7</v>
+        <v>753.5</v>
       </c>
       <c r="E26">
-        <v>88274.5</v>
+        <v>89444.3</v>
       </c>
       <c r="F26">
-        <v>30.7</v>
+        <v>33.1</v>
       </c>
       <c r="G26">
-        <v>178563.6</v>
+        <v>198189.7</v>
       </c>
       <c r="H26">
-        <v>26666.7</v>
+        <v>29616.1</v>
       </c>
       <c r="I26">
-        <v>0.112</v>
+        <v>0.144</v>
       </c>
       <c r="J26">
-        <v>0.128</v>
+        <v>0.155</v>
       </c>
       <c r="K26">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="L26">
-        <v>0.285</v>
+        <v>0.362</v>
       </c>
       <c r="M26">
-        <v>-0.365</v>
+        <v>-0.296</v>
       </c>
       <c r="N26">
-        <v>-0.353</v>
+        <v>-0.282</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1766,40 +1766,40 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>6621</v>
+        <v>6588.4</v>
       </c>
       <c r="D27">
-        <v>1060.6</v>
+        <v>1055.1</v>
       </c>
       <c r="E27">
-        <v>128758.8</v>
+        <v>130500.6</v>
       </c>
       <c r="F27">
-        <v>19.6</v>
+        <v>21.6</v>
       </c>
       <c r="G27">
-        <v>105746.2</v>
+        <v>119014.2</v>
       </c>
       <c r="H27">
-        <v>16514.5</v>
+        <v>18517.7</v>
       </c>
       <c r="I27">
-        <v>2.156</v>
+        <v>2.125</v>
       </c>
       <c r="J27">
-        <v>2.403</v>
+        <v>2.375</v>
       </c>
       <c r="K27">
-        <v>0.887</v>
+        <v>0.882</v>
       </c>
       <c r="L27">
-        <v>-1.386</v>
+        <v>-1.363</v>
       </c>
       <c r="M27">
-        <v>-1.305</v>
+        <v>-1.335</v>
       </c>
       <c r="N27">
-        <v>-1.245</v>
+        <v>-1.286</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1810,40 +1810,40 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>3492.7</v>
+        <v>3505.6</v>
       </c>
       <c r="D28">
-        <v>508.5</v>
+        <v>510.9</v>
       </c>
       <c r="E28">
-        <v>36943.5</v>
+        <v>37183.3</v>
       </c>
       <c r="F28">
-        <v>37.6</v>
+        <v>38.4</v>
       </c>
       <c r="G28">
-        <v>333046.9</v>
+        <v>338055.4</v>
       </c>
       <c r="H28">
-        <v>52371.3</v>
+        <v>53084.1</v>
       </c>
       <c r="I28">
-        <v>-1.518</v>
+        <v>-1.509</v>
       </c>
       <c r="J28">
-        <v>-1.637</v>
+        <v>-1.632</v>
       </c>
       <c r="K28">
-        <v>-2.552</v>
+        <v>-2.576</v>
       </c>
       <c r="L28">
-        <v>1.324</v>
+        <v>1.158</v>
       </c>
       <c r="M28">
-        <v>1.63</v>
+        <v>1.539</v>
       </c>
       <c r="N28">
-        <v>1.906</v>
+        <v>1.839</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1854,40 +1854,40 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>3632.2</v>
+        <v>3619.7</v>
       </c>
       <c r="D29">
-        <v>578.7</v>
+        <v>576.7</v>
       </c>
       <c r="E29">
-        <v>98192.8</v>
+        <v>97873.39999999999</v>
       </c>
       <c r="F29">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="G29">
-        <v>179076.8</v>
+        <v>179353.2</v>
       </c>
       <c r="H29">
-        <v>28789.3</v>
+        <v>28864</v>
       </c>
       <c r="I29">
-        <v>-1.354</v>
+        <v>-1.375</v>
       </c>
       <c r="J29">
-        <v>-1.124</v>
+        <v>-1.147</v>
       </c>
       <c r="K29">
-        <v>-0.258</v>
+        <v>-0.327</v>
       </c>
       <c r="L29">
-        <v>-0.739</v>
+        <v>-0.898</v>
       </c>
       <c r="M29">
-        <v>-0.358</v>
+        <v>-0.544</v>
       </c>
       <c r="N29">
-        <v>-0.166</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1898,40 +1898,40 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>5014.9</v>
+        <v>4960.2</v>
       </c>
       <c r="D30">
-        <v>785.5</v>
+        <v>777.2</v>
       </c>
       <c r="E30">
-        <v>96499.8</v>
+        <v>98296.8</v>
       </c>
       <c r="F30">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="G30">
-        <v>356179.5</v>
+        <v>338213.6</v>
       </c>
       <c r="H30">
-        <v>54629.8</v>
+        <v>51935.1</v>
       </c>
       <c r="I30">
-        <v>0.27</v>
+        <v>0.205</v>
       </c>
       <c r="J30">
-        <v>0.39</v>
+        <v>0.329</v>
       </c>
       <c r="K30">
-        <v>-0.322</v>
+        <v>-0.311</v>
       </c>
       <c r="L30">
-        <v>-0.076</v>
+        <v>-0.268</v>
       </c>
       <c r="M30">
-        <v>1.929</v>
+        <v>1.541</v>
       </c>
       <c r="N30">
-        <v>2.105</v>
+        <v>1.735</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1942,40 +1942,40 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>4346.5</v>
+        <v>4359.7</v>
       </c>
       <c r="D31">
-        <v>666.6</v>
+        <v>668.6</v>
       </c>
       <c r="E31">
-        <v>100963.9</v>
+        <v>103031.7</v>
       </c>
       <c r="F31">
-        <v>30.6</v>
+        <v>33.6</v>
       </c>
       <c r="G31">
-        <v>219868.3</v>
+        <v>245365.4</v>
       </c>
       <c r="H31">
-        <v>31797.8</v>
+        <v>35620.3</v>
       </c>
       <c r="I31">
-        <v>-0.515</v>
+        <v>-0.502</v>
       </c>
       <c r="J31">
-        <v>-0.48</v>
+        <v>-0.471</v>
       </c>
       <c r="K31">
-        <v>-0.154</v>
+        <v>-0.136</v>
       </c>
       <c r="L31">
-        <v>0.27</v>
+        <v>0.437</v>
       </c>
       <c r="M31">
-        <v>0.169</v>
+        <v>0.323</v>
       </c>
       <c r="N31">
-        <v>0.098</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1986,40 +1986,40 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>4241.4</v>
+        <v>4245.8</v>
       </c>
       <c r="D32">
-        <v>634.9</v>
+        <v>633.7</v>
       </c>
       <c r="E32">
-        <v>85216.10000000001</v>
+        <v>87293.60000000001</v>
       </c>
       <c r="F32">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="G32">
-        <v>287027.2</v>
+        <v>304476.2</v>
       </c>
       <c r="H32">
-        <v>40621.3</v>
+        <v>43171.1</v>
       </c>
       <c r="I32">
-        <v>-0.639</v>
+        <v>-0.637</v>
       </c>
       <c r="J32">
-        <v>-0.712</v>
+        <v>-0.727</v>
       </c>
       <c r="K32">
-        <v>-0.744</v>
+        <v>-0.719</v>
       </c>
       <c r="L32">
-        <v>-0.377</v>
+        <v>-0.358</v>
       </c>
       <c r="M32">
-        <v>1.036</v>
+        <v>1.098</v>
       </c>
       <c r="N32">
-        <v>0.874</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2030,40 +2030,40 @@
         <v>51</v>
       </c>
       <c r="C33">
-        <v>4159.1</v>
+        <v>4185.7</v>
       </c>
       <c r="D33">
-        <v>614.3</v>
+        <v>617</v>
       </c>
       <c r="E33">
-        <v>87829</v>
+        <v>94196.7</v>
       </c>
       <c r="F33">
-        <v>40.7</v>
+        <v>43.8</v>
       </c>
       <c r="G33">
-        <v>277113.9</v>
+        <v>298897.7</v>
       </c>
       <c r="H33">
-        <v>40414.4</v>
+        <v>43573.4</v>
       </c>
       <c r="I33">
-        <v>-0.736</v>
+        <v>-0.708</v>
       </c>
       <c r="J33">
-        <v>-0.863</v>
+        <v>-0.85</v>
       </c>
       <c r="K33">
-        <v>-0.646</v>
+        <v>-0.463</v>
       </c>
       <c r="L33">
-        <v>1.791</v>
+        <v>1.968</v>
       </c>
       <c r="M33">
-        <v>0.908</v>
+        <v>1.025</v>
       </c>
       <c r="N33">
-        <v>0.856</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2074,40 +2074,40 @@
         <v>52</v>
       </c>
       <c r="C34">
-        <v>4550.1</v>
+        <v>4550.6</v>
       </c>
       <c r="D34">
         <v>691.3</v>
       </c>
       <c r="E34">
-        <v>87069</v>
+        <v>86966.8</v>
       </c>
       <c r="F34">
-        <v>26.7</v>
+        <v>29.3</v>
       </c>
       <c r="G34">
-        <v>211760</v>
+        <v>220186.7</v>
       </c>
       <c r="H34">
-        <v>32521</v>
+        <v>33734</v>
       </c>
       <c r="I34">
-        <v>-0.276</v>
+        <v>-0.277</v>
       </c>
       <c r="J34">
-        <v>-0.3</v>
+        <v>-0.303</v>
       </c>
       <c r="K34">
-        <v>-0.675</v>
+        <v>-0.731</v>
       </c>
       <c r="L34">
-        <v>-0.317</v>
+        <v>-0.208</v>
       </c>
       <c r="M34">
-        <v>0.064</v>
+        <v>-0.008</v>
       </c>
       <c r="N34">
-        <v>0.162</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2118,40 +2118,40 @@
         <v>53</v>
       </c>
       <c r="C35">
-        <v>3933.1</v>
+        <v>3900.2</v>
       </c>
       <c r="D35">
-        <v>583.2</v>
+        <v>578.5</v>
       </c>
       <c r="E35">
-        <v>96682.89999999999</v>
+        <v>96318.2</v>
       </c>
       <c r="F35">
-        <v>23.7</v>
+        <v>25.3</v>
       </c>
       <c r="G35">
-        <v>130364.8</v>
+        <v>139367.4</v>
       </c>
       <c r="H35">
-        <v>18758.3</v>
+        <v>19994.8</v>
       </c>
       <c r="I35">
-        <v>-1.001</v>
+        <v>-1.044</v>
       </c>
       <c r="J35">
-        <v>-1.091</v>
+        <v>-1.134</v>
       </c>
       <c r="K35">
-        <v>-0.315</v>
+        <v>-0.385</v>
       </c>
       <c r="L35">
-        <v>-0.769</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="M35">
-        <v>-0.987</v>
+        <v>-1.068</v>
       </c>
       <c r="N35">
-        <v>-1.048</v>
+        <v>-1.152</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2162,40 +2162,40 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <v>3994.3</v>
+        <v>4030.4</v>
       </c>
       <c r="D36">
-        <v>598.1</v>
+        <v>604.8</v>
       </c>
       <c r="E36">
-        <v>138537.3</v>
+        <v>134739.7</v>
       </c>
       <c r="F36">
-        <v>31.1</v>
+        <v>33.5</v>
       </c>
       <c r="G36">
-        <v>190574.4</v>
+        <v>207644.5</v>
       </c>
       <c r="H36">
-        <v>25436.5</v>
+        <v>27933</v>
       </c>
       <c r="I36">
-        <v>-0.929</v>
+        <v>-0.891</v>
       </c>
       <c r="J36">
-        <v>-0.982</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="K36">
-        <v>1.253</v>
+        <v>1.039</v>
       </c>
       <c r="L36">
-        <v>0.346</v>
+        <v>0.422</v>
       </c>
       <c r="M36">
-        <v>-0.209</v>
+        <v>-0.172</v>
       </c>
       <c r="N36">
-        <v>-0.461</v>
+        <v>-0.435</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2206,40 +2206,40 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>5726.7</v>
+        <v>5702.1</v>
       </c>
       <c r="D37">
-        <v>893.1</v>
+        <v>889.9</v>
       </c>
       <c r="E37">
-        <v>129167.3</v>
+        <v>130356.2</v>
       </c>
       <c r="F37">
-        <v>24</v>
+        <v>27.3</v>
       </c>
       <c r="G37">
-        <v>165240.4</v>
+        <v>197179.5</v>
       </c>
       <c r="H37">
-        <v>24758.4</v>
+        <v>29358.2</v>
       </c>
       <c r="I37">
-        <v>1.106</v>
+        <v>1.08</v>
       </c>
       <c r="J37">
-        <v>1.177</v>
+        <v>1.159</v>
       </c>
       <c r="K37">
-        <v>0.902</v>
+        <v>0.877</v>
       </c>
       <c r="L37">
-        <v>-0.723</v>
+        <v>-0.508</v>
       </c>
       <c r="M37">
-        <v>-0.537</v>
+        <v>-0.31</v>
       </c>
       <c r="N37">
-        <v>-0.52</v>
+        <v>-0.306</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2250,40 +2250,40 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>5126</v>
+        <v>5134.2</v>
       </c>
       <c r="D38">
-        <v>802.8</v>
+        <v>807.9</v>
       </c>
       <c r="E38">
-        <v>139775.8</v>
+        <v>140003</v>
       </c>
       <c r="F38">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="G38">
-        <v>91907.7</v>
+        <v>100293</v>
       </c>
       <c r="H38">
-        <v>13875.9</v>
+        <v>15158.6</v>
       </c>
       <c r="I38">
-        <v>0.4</v>
+        <v>0.411</v>
       </c>
       <c r="J38">
-        <v>0.516</v>
+        <v>0.555</v>
       </c>
       <c r="K38">
-        <v>1.299</v>
+        <v>1.234</v>
       </c>
       <c r="L38">
-        <v>-1.266</v>
+        <v>-1.303</v>
       </c>
       <c r="M38">
-        <v>-1.484</v>
+        <v>-1.581</v>
       </c>
       <c r="N38">
-        <v>-1.477</v>
+        <v>-1.589</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2294,40 +2294,40 @@
         <v>57</v>
       </c>
       <c r="C39">
-        <v>6312.6</v>
+        <v>6425.4</v>
       </c>
       <c r="D39">
-        <v>904.3</v>
+        <v>920.9</v>
       </c>
       <c r="E39">
-        <v>146283.3</v>
+        <v>151142.6</v>
       </c>
       <c r="F39">
-        <v>46.7</v>
+        <v>48</v>
       </c>
       <c r="G39">
-        <v>344917.8</v>
+        <v>361267.8</v>
       </c>
       <c r="H39">
-        <v>47298.1</v>
+        <v>49576.1</v>
       </c>
       <c r="I39">
-        <v>1.794</v>
+        <v>1.933</v>
       </c>
       <c r="J39">
-        <v>1.259</v>
+        <v>1.387</v>
       </c>
       <c r="K39">
-        <v>1.543</v>
+        <v>1.647</v>
       </c>
       <c r="L39">
-        <v>2.695</v>
+        <v>2.598</v>
       </c>
       <c r="M39">
-        <v>1.784</v>
+        <v>1.843</v>
       </c>
       <c r="N39">
-        <v>1.461</v>
+        <v>1.522</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2338,40 +2338,40 @@
         <v>58</v>
       </c>
       <c r="C40">
-        <v>5032.6</v>
+        <v>4942.4</v>
       </c>
       <c r="D40">
-        <v>766</v>
+        <v>756.4</v>
       </c>
       <c r="E40">
-        <v>85738.7</v>
+        <v>86626.39999999999</v>
       </c>
       <c r="F40">
-        <v>25.4</v>
+        <v>27.7</v>
       </c>
       <c r="G40">
-        <v>143305.1</v>
+        <v>164284.4</v>
       </c>
       <c r="H40">
-        <v>20909</v>
+        <v>24011.9</v>
       </c>
       <c r="I40">
-        <v>0.29</v>
+        <v>0.185</v>
       </c>
       <c r="J40">
-        <v>0.247</v>
+        <v>0.176</v>
       </c>
       <c r="K40">
-        <v>-0.725</v>
+        <v>-0.744</v>
       </c>
       <c r="L40">
-        <v>-0.513</v>
+        <v>-0.448</v>
       </c>
       <c r="M40">
-        <v>-0.82</v>
+        <v>-0.741</v>
       </c>
       <c r="N40">
-        <v>-0.859</v>
+        <v>-0.789</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2382,40 +2382,40 @@
         <v>59</v>
       </c>
       <c r="C41">
-        <v>4035.4</v>
+        <v>4032.8</v>
       </c>
       <c r="D41">
-        <v>616.3</v>
+        <v>615.2</v>
       </c>
       <c r="E41">
-        <v>143616.6</v>
+        <v>147709.9</v>
       </c>
       <c r="F41">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="G41">
-        <v>200350.4</v>
+        <v>205494.9</v>
       </c>
       <c r="H41">
-        <v>30649.2</v>
+        <v>31379.3</v>
       </c>
       <c r="I41">
-        <v>-0.881</v>
+        <v>-0.888</v>
       </c>
       <c r="J41">
-        <v>-0.849</v>
+        <v>-0.864</v>
       </c>
       <c r="K41">
-        <v>1.443</v>
+        <v>1.52</v>
       </c>
       <c r="L41">
-        <v>0.406</v>
+        <v>0.152</v>
       </c>
       <c r="M41">
-        <v>-0.083</v>
+        <v>-0.201</v>
       </c>
       <c r="N41">
-        <v>-0.003</v>
+        <v>-0.123</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2426,40 +2426,40 @@
         <v>60</v>
       </c>
       <c r="C42">
-        <v>4504.9</v>
+        <v>4540.4</v>
       </c>
       <c r="D42">
-        <v>698.6</v>
+        <v>703.6</v>
       </c>
       <c r="E42">
-        <v>97355.3</v>
+        <v>101637.4</v>
       </c>
       <c r="F42">
-        <v>26.4</v>
+        <v>28.5</v>
       </c>
       <c r="G42">
-        <v>156588.2</v>
+        <v>172976.9</v>
       </c>
       <c r="H42">
-        <v>24041</v>
+        <v>26553.7</v>
       </c>
       <c r="I42">
-        <v>-0.329</v>
+        <v>-0.289</v>
       </c>
       <c r="J42">
-        <v>-0.246</v>
+        <v>-0.213</v>
       </c>
       <c r="K42">
-        <v>-0.289</v>
+        <v>-0.188</v>
       </c>
       <c r="L42">
-        <v>-0.362</v>
+        <v>-0.328</v>
       </c>
       <c r="M42">
-        <v>-0.648</v>
+        <v>-0.627</v>
       </c>
       <c r="N42">
-        <v>-0.583</v>
+        <v>-0.5590000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2470,40 +2470,40 @@
         <v>61</v>
       </c>
       <c r="C43">
-        <v>4395.7</v>
+        <v>4495.2</v>
       </c>
       <c r="D43">
-        <v>690.6</v>
+        <v>704.9</v>
       </c>
       <c r="E43">
-        <v>98101.10000000001</v>
+        <v>99799.2</v>
       </c>
       <c r="F43">
-        <v>24.6</v>
+        <v>25.3</v>
       </c>
       <c r="G43">
-        <v>111430</v>
+        <v>113742.8</v>
       </c>
       <c r="H43">
-        <v>17057.9</v>
+        <v>17426.3</v>
       </c>
       <c r="I43">
-        <v>-0.458</v>
+        <v>-0.343</v>
       </c>
       <c r="J43">
-        <v>-0.305</v>
+        <v>-0.203</v>
       </c>
       <c r="K43">
-        <v>-0.262</v>
+        <v>-0.256</v>
       </c>
       <c r="L43">
-        <v>-0.633</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="M43">
-        <v>-1.231</v>
+        <v>-1.405</v>
       </c>
       <c r="N43">
-        <v>-1.197</v>
+        <v>-1.384</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2514,40 +2514,40 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>5385.5</v>
+        <v>5285</v>
       </c>
       <c r="D44">
-        <v>833.6</v>
+        <v>816.9</v>
       </c>
       <c r="E44">
-        <v>87407.8</v>
+        <v>88140</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>26.4</v>
       </c>
       <c r="G44">
-        <v>185136.9</v>
+        <v>208600.7</v>
       </c>
       <c r="H44">
-        <v>28014.3</v>
+        <v>31591.3</v>
       </c>
       <c r="I44">
-        <v>0.705</v>
+        <v>0.588</v>
       </c>
       <c r="J44">
-        <v>0.742</v>
+        <v>0.621</v>
       </c>
       <c r="K44">
-        <v>-0.662</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="L44">
-        <v>-0.723</v>
+        <v>-0.643</v>
       </c>
       <c r="M44">
-        <v>-0.28</v>
+        <v>-0.16</v>
       </c>
       <c r="N44">
-        <v>-0.234</v>
+        <v>-0.104</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2558,40 +2558,40 @@
         <v>63</v>
       </c>
       <c r="C45">
-        <v>5418.9</v>
+        <v>5393.1</v>
       </c>
       <c r="D45">
-        <v>869.5</v>
+        <v>864.1</v>
       </c>
       <c r="E45">
-        <v>53455.5</v>
+        <v>53496.5</v>
       </c>
       <c r="F45">
-        <v>15.4</v>
+        <v>16.5</v>
       </c>
       <c r="G45">
-        <v>67119.89999999999</v>
+        <v>71390.10000000001</v>
       </c>
       <c r="H45">
-        <v>10668.4</v>
+        <v>11348.9</v>
       </c>
       <c r="I45">
-        <v>0.216</v>
+        <v>0.187</v>
       </c>
       <c r="J45">
-        <v>0.518</v>
+        <v>0.469</v>
       </c>
       <c r="K45">
-        <v>-2.914</v>
+        <v>-2.957</v>
       </c>
       <c r="L45">
-        <v>-1.861</v>
+        <v>-1.925</v>
       </c>
       <c r="M45">
-        <v>-1.013</v>
+        <v>-1.101</v>
       </c>
       <c r="N45">
-        <v>-1.027</v>
+        <v>-1.114</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2602,40 +2602,40 @@
         <v>64</v>
       </c>
       <c r="C46">
-        <v>4798.5</v>
+        <v>4822.4</v>
       </c>
       <c r="D46">
-        <v>751.4</v>
+        <v>755.2</v>
       </c>
       <c r="E46">
-        <v>86243.10000000001</v>
+        <v>89885.5</v>
       </c>
       <c r="F46">
-        <v>26.4</v>
+        <v>28.8</v>
       </c>
       <c r="G46">
-        <v>163541.6</v>
+        <v>181968.7</v>
       </c>
       <c r="H46">
-        <v>25288.3</v>
+        <v>28117.2</v>
       </c>
       <c r="I46">
-        <v>-0.712</v>
+        <v>-0.653</v>
       </c>
       <c r="J46">
-        <v>-0.633</v>
+        <v>-0.571</v>
       </c>
       <c r="K46">
-        <v>-0.854</v>
+        <v>-0.716</v>
       </c>
       <c r="L46">
-        <v>0.305</v>
+        <v>0.355</v>
       </c>
       <c r="M46">
-        <v>-0.279</v>
+        <v>-0.254</v>
       </c>
       <c r="N46">
-        <v>-0.231</v>
+        <v>-0.198</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2646,40 +2646,40 @@
         <v>65</v>
       </c>
       <c r="C47">
-        <v>5252.9</v>
+        <v>5122.8</v>
       </c>
       <c r="D47">
-        <v>799</v>
+        <v>777.5</v>
       </c>
       <c r="E47">
-        <v>93146.3</v>
+        <v>95012.2</v>
       </c>
       <c r="F47">
-        <v>25.7</v>
+        <v>27.6</v>
       </c>
       <c r="G47">
-        <v>168430.2</v>
+        <v>185213</v>
       </c>
       <c r="H47">
-        <v>25457.3</v>
+        <v>27905.4</v>
       </c>
       <c r="I47">
-        <v>-0.032</v>
+        <v>-0.211</v>
       </c>
       <c r="J47">
-        <v>-0.169</v>
+        <v>-0.358</v>
       </c>
       <c r="K47">
-        <v>-0.421</v>
+        <v>-0.4</v>
       </c>
       <c r="L47">
-        <v>0.167</v>
+        <v>0.132</v>
       </c>
       <c r="M47">
-        <v>-0.242</v>
+        <v>-0.229</v>
       </c>
       <c r="N47">
-        <v>-0.222</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2690,40 +2690,40 @@
         <v>66</v>
       </c>
       <c r="C48">
-        <v>7246</v>
+        <v>7276.4</v>
       </c>
       <c r="D48">
-        <v>1112.5</v>
+        <v>1118.1</v>
       </c>
       <c r="E48">
-        <v>90155.3</v>
+        <v>90805.5</v>
       </c>
       <c r="F48">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="G48">
-        <v>180833.8</v>
+        <v>182400.5</v>
       </c>
       <c r="H48">
-        <v>26736.7</v>
+        <v>26911.9</v>
       </c>
       <c r="I48">
-        <v>2.948</v>
+        <v>2.956</v>
       </c>
       <c r="J48">
-        <v>2.888</v>
+        <v>2.894</v>
       </c>
       <c r="K48">
-        <v>-0.609</v>
+        <v>-0.659</v>
       </c>
       <c r="L48">
-        <v>-1.152</v>
+        <v>-1.183</v>
       </c>
       <c r="M48">
-        <v>-0.147</v>
+        <v>-0.25</v>
       </c>
       <c r="N48">
-        <v>-0.153</v>
+        <v>-0.264</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2734,40 +2734,40 @@
         <v>67</v>
       </c>
       <c r="C49">
-        <v>5428.6</v>
+        <v>5486.2</v>
       </c>
       <c r="D49">
-        <v>829.8</v>
+        <v>839.3</v>
       </c>
       <c r="E49">
-        <v>114793.6</v>
+        <v>117556.1</v>
       </c>
       <c r="F49">
-        <v>35.7</v>
+        <v>37.9</v>
       </c>
       <c r="G49">
-        <v>245523.4</v>
+        <v>262315.5</v>
       </c>
       <c r="H49">
-        <v>36272.3</v>
+        <v>38835.7</v>
       </c>
       <c r="I49">
-        <v>0.23</v>
+        <v>0.323</v>
       </c>
       <c r="J49">
-        <v>0.131</v>
+        <v>0.232</v>
       </c>
       <c r="K49">
-        <v>0.9389999999999999</v>
+        <v>0.989</v>
       </c>
       <c r="L49">
-        <v>2.136</v>
+        <v>2.041</v>
       </c>
       <c r="M49">
-        <v>0.345</v>
+        <v>0.362</v>
       </c>
       <c r="N49">
-        <v>0.366</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2778,40 +2778,40 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>5204.9</v>
+        <v>5236.3</v>
       </c>
       <c r="D50">
-        <v>816</v>
+        <v>820.9</v>
       </c>
       <c r="E50">
-        <v>105960.6</v>
+        <v>105657.1</v>
       </c>
       <c r="F50">
-        <v>20.6</v>
+        <v>22.6</v>
       </c>
       <c r="G50">
-        <v>111552.8</v>
+        <v>124903.9</v>
       </c>
       <c r="H50">
-        <v>17271.2</v>
+        <v>19340.8</v>
       </c>
       <c r="I50">
-        <v>-0.104</v>
+        <v>-0.044</v>
       </c>
       <c r="J50">
-        <v>-0.003</v>
+        <v>0.056</v>
       </c>
       <c r="K50">
-        <v>0.384</v>
+        <v>0.256</v>
       </c>
       <c r="L50">
-        <v>-0.837</v>
+        <v>-0.794</v>
       </c>
       <c r="M50">
-        <v>-0.674</v>
+        <v>-0.6909999999999999</v>
       </c>
       <c r="N50">
-        <v>-0.667</v>
+        <v>-0.678</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2822,40 +2822,40 @@
         <v>69</v>
       </c>
       <c r="C51">
-        <v>5210.4</v>
+        <v>5204.3</v>
       </c>
       <c r="D51">
-        <v>813.9</v>
+        <v>813.5</v>
       </c>
       <c r="E51">
-        <v>97511.60000000001</v>
+        <v>100192.1</v>
       </c>
       <c r="F51">
-        <v>26.4</v>
+        <v>28.7</v>
       </c>
       <c r="G51">
-        <v>166510.1</v>
+        <v>187008</v>
       </c>
       <c r="H51">
-        <v>25286.2</v>
+        <v>28368.6</v>
       </c>
       <c r="I51">
-        <v>-0.096</v>
+        <v>-0.091</v>
       </c>
       <c r="J51">
-        <v>-0.024</v>
+        <v>-0.015</v>
       </c>
       <c r="K51">
-        <v>-0.147</v>
+        <v>-0.081</v>
       </c>
       <c r="L51">
-        <v>0.305</v>
+        <v>0.336</v>
       </c>
       <c r="M51">
-        <v>-0.256</v>
+        <v>-0.215</v>
       </c>
       <c r="N51">
-        <v>-0.231</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2866,40 +2866,40 @@
         <v>70</v>
       </c>
       <c r="C52">
-        <v>5475.7</v>
+        <v>5540.8</v>
       </c>
       <c r="D52">
-        <v>841.6</v>
+        <v>851.8</v>
       </c>
       <c r="E52">
-        <v>104022.6</v>
+        <v>105566.4</v>
       </c>
       <c r="F52">
-        <v>27.6</v>
+        <v>30.8</v>
       </c>
       <c r="G52">
-        <v>190035.4</v>
+        <v>227519</v>
       </c>
       <c r="H52">
-        <v>28208.9</v>
+        <v>33506.6</v>
       </c>
       <c r="I52">
-        <v>0.301</v>
+        <v>0.404</v>
       </c>
       <c r="J52">
-        <v>0.246</v>
+        <v>0.351</v>
       </c>
       <c r="K52">
-        <v>0.262</v>
+        <v>0.251</v>
       </c>
       <c r="L52">
-        <v>0.541</v>
+        <v>0.725</v>
       </c>
       <c r="M52">
-        <v>-0.077</v>
+        <v>0.095</v>
       </c>
       <c r="N52">
-        <v>-0.07199999999999999</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2910,40 +2910,40 @@
         <v>71</v>
       </c>
       <c r="C53">
-        <v>4804.5</v>
+        <v>4819.6</v>
       </c>
       <c r="D53">
-        <v>733.6</v>
+        <v>732.7</v>
       </c>
       <c r="E53">
-        <v>112560.8</v>
+        <v>112967.9</v>
       </c>
       <c r="F53">
-        <v>21.8</v>
+        <v>23.6</v>
       </c>
       <c r="G53">
-        <v>124645.6</v>
+        <v>140428.3</v>
       </c>
       <c r="H53">
-        <v>18328</v>
+        <v>20520.2</v>
       </c>
       <c r="I53">
-        <v>-0.703</v>
+        <v>-0.657</v>
       </c>
       <c r="J53">
-        <v>-0.8070000000000001</v>
+        <v>-0.786</v>
       </c>
       <c r="K53">
-        <v>0.799</v>
+        <v>0.707</v>
       </c>
       <c r="L53">
-        <v>-0.601</v>
+        <v>-0.609</v>
       </c>
       <c r="M53">
-        <v>-0.575</v>
+        <v>-0.572</v>
       </c>
       <c r="N53">
-        <v>-0.61</v>
+        <v>-0.613</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2954,40 +2954,40 @@
         <v>72</v>
       </c>
       <c r="C54">
-        <v>5336.3</v>
+        <v>5341.6</v>
       </c>
       <c r="D54">
-        <v>829.5</v>
+        <v>829.6</v>
       </c>
       <c r="E54">
-        <v>105358.8</v>
+        <v>106777.6</v>
       </c>
       <c r="F54">
-        <v>27.4</v>
+        <v>30.1</v>
       </c>
       <c r="G54">
-        <v>173256.8</v>
+        <v>195374.1</v>
       </c>
       <c r="H54">
-        <v>25244.8</v>
+        <v>28507.4</v>
       </c>
       <c r="I54">
-        <v>0.092</v>
+        <v>0.111</v>
       </c>
       <c r="J54">
-        <v>0.128</v>
+        <v>0.139</v>
       </c>
       <c r="K54">
-        <v>0.346</v>
+        <v>0.325</v>
       </c>
       <c r="L54">
-        <v>0.502</v>
+        <v>0.596</v>
       </c>
       <c r="M54">
-        <v>-0.205</v>
+        <v>-0.151</v>
       </c>
       <c r="N54">
-        <v>-0.234</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2998,40 +2998,40 @@
         <v>73</v>
       </c>
       <c r="C55">
-        <v>5112.3</v>
+        <v>5065.3</v>
       </c>
       <c r="D55">
-        <v>799</v>
+        <v>793.1</v>
       </c>
       <c r="E55">
-        <v>106221.6</v>
+        <v>107828.6</v>
       </c>
       <c r="F55">
-        <v>24.4</v>
+        <v>26.2</v>
       </c>
       <c r="G55">
-        <v>171559.8</v>
+        <v>180535</v>
       </c>
       <c r="H55">
-        <v>26451.6</v>
+        <v>27820.6</v>
       </c>
       <c r="I55">
-        <v>-0.243</v>
+        <v>-0.296</v>
       </c>
       <c r="J55">
-        <v>-0.169</v>
+        <v>-0.209</v>
       </c>
       <c r="K55">
-        <v>0.401</v>
+        <v>0.39</v>
       </c>
       <c r="L55">
-        <v>-0.089</v>
+        <v>-0.127</v>
       </c>
       <c r="M55">
-        <v>-0.218</v>
+        <v>-0.265</v>
       </c>
       <c r="N55">
-        <v>-0.168</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3042,40 +3042,40 @@
         <v>74</v>
       </c>
       <c r="C56">
-        <v>4126.8</v>
+        <v>4127.5</v>
       </c>
       <c r="D56">
-        <v>639.2</v>
+        <v>639.4</v>
       </c>
       <c r="E56">
-        <v>107372.1</v>
+        <v>111828.6</v>
       </c>
       <c r="F56">
-        <v>20.7</v>
+        <v>22.6</v>
       </c>
       <c r="G56">
-        <v>101297.1</v>
+        <v>113181.2</v>
       </c>
       <c r="H56">
-        <v>15237.8</v>
+        <v>16923.4</v>
       </c>
       <c r="I56">
-        <v>-1.716</v>
+        <v>-1.675</v>
       </c>
       <c r="J56">
-        <v>-1.728</v>
+        <v>-1.677</v>
       </c>
       <c r="K56">
-        <v>0.473</v>
+        <v>0.636</v>
       </c>
       <c r="L56">
-        <v>-0.8169999999999999</v>
+        <v>-0.794</v>
       </c>
       <c r="M56">
-        <v>-0.752</v>
+        <v>-0.781</v>
       </c>
       <c r="N56">
-        <v>-0.778</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3086,40 +3086,40 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>5339.9</v>
+        <v>5281.8</v>
       </c>
       <c r="D57">
-        <v>823.1</v>
+        <v>815</v>
       </c>
       <c r="E57">
-        <v>113454.9</v>
+        <v>114973.9</v>
       </c>
       <c r="F57">
-        <v>26.9</v>
+        <v>28.7</v>
       </c>
       <c r="G57">
-        <v>344147.8</v>
+        <v>359045.3</v>
       </c>
       <c r="H57">
-        <v>48110.6</v>
+        <v>50285.4</v>
       </c>
       <c r="I57">
-        <v>0.098</v>
+        <v>0.023</v>
       </c>
       <c r="J57">
-        <v>0.066</v>
+        <v>-0</v>
       </c>
       <c r="K57">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="L57">
-        <v>0.404</v>
+        <v>0.336</v>
       </c>
       <c r="M57">
-        <v>1.096</v>
+        <v>1.104</v>
       </c>
       <c r="N57">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3130,40 +3130,40 @@
         <v>76</v>
       </c>
       <c r="C58">
-        <v>5087.4</v>
+        <v>5009.7</v>
       </c>
       <c r="D58">
-        <v>770.8</v>
+        <v>760.3</v>
       </c>
       <c r="E58">
-        <v>107568</v>
+        <v>108448.1</v>
       </c>
       <c r="F58">
-        <v>29.9</v>
+        <v>31.8</v>
       </c>
       <c r="G58">
-        <v>594098.4</v>
+        <v>599738.8</v>
       </c>
       <c r="H58">
-        <v>85002.39999999999</v>
+        <v>86109.8</v>
       </c>
       <c r="I58">
-        <v>-0.28</v>
+        <v>-0.377</v>
       </c>
       <c r="J58">
-        <v>-0.444</v>
+        <v>-0.523</v>
       </c>
       <c r="K58">
-        <v>0.485</v>
+        <v>0.428</v>
       </c>
       <c r="L58">
-        <v>0.994</v>
+        <v>0.911</v>
       </c>
       <c r="M58">
-        <v>2.998</v>
+        <v>2.949</v>
       </c>
       <c r="N58">
-        <v>3.017</v>
+        <v>2.969</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3174,22 +3174,22 @@
         <v>77</v>
       </c>
       <c r="C59">
-        <v>5414.1</v>
+        <v>5424.4</v>
       </c>
       <c r="D59">
-        <v>836.9</v>
+        <v>838.1</v>
       </c>
       <c r="E59">
-        <v>107594.2</v>
+        <v>109656.9</v>
       </c>
       <c r="F59">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="G59">
-        <v>179003.7</v>
+        <v>194137</v>
       </c>
       <c r="H59">
-        <v>26565.1</v>
+        <v>28764.7</v>
       </c>
       <c r="I59">
         <v>0.707</v>
@@ -3218,22 +3218,22 @@
         <v>78</v>
       </c>
       <c r="C60">
-        <v>4784.9</v>
+        <v>4740</v>
       </c>
       <c r="D60">
-        <v>737.5</v>
+        <v>730.5</v>
       </c>
       <c r="E60">
-        <v>101386.2</v>
+        <v>102858.8</v>
       </c>
       <c r="F60">
-        <v>26.4</v>
+        <v>28.6</v>
       </c>
       <c r="G60">
-        <v>229394.1</v>
+        <v>245998.1</v>
       </c>
       <c r="H60">
-        <v>33627.3</v>
+        <v>36133.5</v>
       </c>
       <c r="I60">
         <v>-0.707</v>
